--- a/static/aho.xlsx
+++ b/static/aho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -55,6 +55,18 @@
     <t>Новая</t>
   </si>
   <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>Дверной замок </t>
+  </si>
+  <si>
+    <t>Дверная ручка </t>
+  </si>
+  <si>
+    <t>В работе</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -73,6 +85,15 @@
     <t>Дырокол  - 2</t>
   </si>
   <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>Починить тумбу </t>
+  </si>
+  <si>
+    <t>Выключатель </t>
+  </si>
+  <si>
     <t>312</t>
   </si>
   <si>
@@ -80,6 +101,9 @@
   </si>
   <si>
     <t>Лампа в потолочном светильнике </t>
+  </si>
+  <si>
+    <t>224</t>
   </si>
   <si>
     <t>Бумага А3  - 2</t>
@@ -180,7 +204,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -265,10 +289,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" s="7">
-        <v>43279.8471295</v>
+        <v>43279.8657998</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -280,10 +304,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -299,19 +323,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B7" s="7">
-        <v>43279.8427078</v>
+        <v>43279.8471295</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
@@ -325,45 +349,45 @@
       <c r="B8" s="7"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="8" t="s">
-        <v>18</v>
+      <c r="E8" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="A9" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B9" s="7">
+        <v>43279.8427078</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="B10" s="7">
-        <v>43279.6838278</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A10" s="3"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3"/>
@@ -371,32 +395,32 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B12" s="7">
-        <v>43279.598308</v>
+        <v>43279.6841481</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -404,25 +428,127 @@
       <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="8" t="s">
-        <v>24</v>
+      <c r="E13" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="9" t="s">
+      <c r="A14" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B14" s="7">
+        <v>43279.6838278</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B16" s="7">
+        <v>43279.6316324</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B18" s="7">
+        <v>43279.598308</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="48">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -435,24 +561,42 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="F12:F14"/>
-    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/aho.xlsx
+++ b/static/aho.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>#</t>
   </si>
@@ -37,9 +37,57 @@
     <t>Сергей Александрович Воронов</t>
   </si>
   <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>Дверная ручка </t>
+  </si>
+  <si>
+    <t>Дверца шкафа </t>
+  </si>
+  <si>
+    <t>Не задан</t>
+  </si>
+  <si>
+    <t>Выполнена</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
+    <t>тестовое наименование  - 1</t>
+  </si>
+  <si>
+    <t>Скотч  - 10</t>
+  </si>
+  <si>
+    <t>Новая</t>
+  </si>
+  <si>
+    <t>Бумага А3  - 3</t>
+  </si>
+  <si>
+    <t>Дырокол  - 1</t>
+  </si>
+  <si>
+    <t>Скоросшиватели  - 5</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>Жалюзи </t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>Лампа в потолочном светильнике </t>
+  </si>
+  <si>
     <t>Бумага А4  - 5</t>
   </si>
   <si>
@@ -49,67 +97,46 @@
     <t>Карандаши  - 5</t>
   </si>
   <si>
-    <t>Не задан</t>
-  </si>
-  <si>
-    <t>Новая</t>
-  </si>
-  <si>
     <t>242</t>
   </si>
   <si>
     <t>Дверной замок </t>
   </si>
   <si>
-    <t>Дверная ручка </t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Офисное кресло </t>
+  </si>
+  <si>
+    <t>Офисный стол </t>
+  </si>
+  <si>
+    <t>Карандаши  - 10</t>
+  </si>
+  <si>
+    <t>Шариковые ручки  - 20</t>
+  </si>
+  <si>
+    <t>Дырокол  - 2</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>Лампа в настенном светильнике </t>
+  </si>
+  <si>
+    <t>Андрей Анатольевич Акинин</t>
   </si>
   <si>
     <t>В работе</t>
   </si>
   <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Офисное кресло </t>
-  </si>
-  <si>
-    <t>Офисный стол </t>
-  </si>
-  <si>
-    <t>Карандаши  - 10</t>
-  </si>
-  <si>
-    <t>Шариковые ручки  - 20</t>
-  </si>
-  <si>
-    <t>Дырокол  - 2</t>
-  </si>
-  <si>
-    <t>402</t>
-  </si>
-  <si>
-    <t>Починить тумбу </t>
-  </si>
-  <si>
-    <t>Выключатель </t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>Лампа в настенном светильнике </t>
-  </si>
-  <si>
-    <t>Лампа в потолочном светильнике </t>
-  </si>
-  <si>
     <t>224</t>
   </si>
   <si>
     <t>Бумага А3  - 2</t>
-  </si>
-  <si>
-    <t>Скоросшиватели  - 5</t>
   </si>
 </sst>
 </file>
@@ -204,7 +231,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="1" tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -244,10 +271,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B2" s="7">
-        <v>43280.2403185</v>
+        <v>43292.3406814</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
@@ -259,10 +286,10 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -270,79 +297,79 @@
       <c r="B3" s="7"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43292.340098</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="n">
-        <v>61</v>
-      </c>
-      <c r="B5" s="7">
-        <v>43279.8657998</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="8" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="n">
+        <v>67</v>
+      </c>
+      <c r="B6" s="7">
+        <v>43292.3379891</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="n">
-        <v>60</v>
-      </c>
-      <c r="B7" s="7">
-        <v>43279.8471295</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3"/>
@@ -350,32 +377,32 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3" t="n">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B9" s="7">
-        <v>43279.8427078</v>
+        <v>43292.2629708</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -383,79 +410,91 @@
       <c r="B10" s="7"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
-        <v>22</v>
+      <c r="E10" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="3" t="n">
+        <v>64</v>
+      </c>
+      <c r="B11" s="7">
+        <v>43285.3326356</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E11" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B12" s="7">
-        <v>43279.6841481</v>
+        <v>43284.5347254</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="n">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7">
+        <v>43280.2403185</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9" t="s">
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="3" t="n">
-        <v>57</v>
-      </c>
-      <c r="B14" s="7">
-        <v>43279.6838278</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3"/>
@@ -463,32 +502,32 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B16" s="7">
-        <v>43279.6316324</v>
+        <v>43279.8657998</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -497,32 +536,32 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B18" s="7">
-        <v>43279.598308</v>
+        <v>43279.8471295</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -530,73 +569,250 @@
       <c r="B19" s="7"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>32</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="9" t="s">
+      <c r="A20" s="3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B20" s="7">
+        <v>43279.8427078</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7">
+        <v>43279.6838278</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="n">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7">
+        <v>43279.6316324</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="B27" s="7">
+        <v>43279.598308</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+  <mergeCells count="78">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A11:A11"/>
+    <mergeCell ref="B11:B11"/>
+    <mergeCell ref="C11:C11"/>
+    <mergeCell ref="D11:D11"/>
+    <mergeCell ref="F11:F11"/>
+    <mergeCell ref="G11:G11"/>
+    <mergeCell ref="A12:A12"/>
+    <mergeCell ref="B12:B12"/>
+    <mergeCell ref="C12:C12"/>
+    <mergeCell ref="D12:D12"/>
+    <mergeCell ref="F12:F12"/>
+    <mergeCell ref="G12:G12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G27:G29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/aho.xlsx
+++ b/static/aho.xlsx
@@ -103,6 +103,9 @@
     <t>Дверной замок </t>
   </si>
   <si>
+    <t>В работе</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -128,9 +131,6 @@
   </si>
   <si>
     <t>Андрей Анатольевич Акинин</t>
-  </si>
-  <si>
-    <t>В работе</t>
   </si>
   <si>
     <t>224</t>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -552,10 +552,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>11</v>
@@ -570,7 +570,7 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>11</v>
@@ -604,7 +604,7 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -615,7 +615,7 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -631,16 +631,16 @@
         <v>7</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7">
